--- a/prediction_result_today.xlsx
+++ b/prediction_result_today.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,25 +478,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yelimay Semey</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,27 +508,27 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -550,30 +550,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Najaf</t>
+          <t>USA W</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Zakho</t>
+          <t>Chile W</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -586,30 +586,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bath City</t>
+          <t>IAPE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Slough Town</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.76</v>
+        <v>5.5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -622,25 +622,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sekhukhune United</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.3</v>
+        <v>3.54</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -652,27 +652,27 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cheshunt</t>
+          <t>Somaspor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aveley</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.34</v>
+        <v>4.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -694,25 +694,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Al Anwar</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -730,66 +730,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Santo André</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Ferroviária</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Guadalupe FC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Accrington ST</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.12</v>
+        <v>4.65</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>✈️ 원정승</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -802,25 +802,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pompiers</t>
+          <t>Tarxien Rainbows</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Valletta FC</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.98</v>
+        <v>5.75</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -838,30 +838,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Club Sp. San Lorenzo</t>
+          <t>Karacabey Belediyespor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Erzin Spor</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.9</v>
+        <v>2.38</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>✈️ 원정승</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -874,21 +874,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Al-Ittihad Kalba</t>
+          <t>Arnavutköy Belediyespor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -910,73 +910,73 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tauras</t>
+          <t>Al-Dhafra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Sharjah FC</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Enfield Town</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dorking Wanderers</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>90.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -987,92 +987,92 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Maidstone Utd</t>
+          <t>Mgarr United</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ebbsfleet United</t>
+          <t>Mosta</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>89.5</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>East Kilbride</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spartans</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>89.5</v>
+        <v>91.7</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kettering Town</t>
+          <t>Maguary PE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AFC Sudbury</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.43</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1081,178 +1081,178 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>88.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Independiente Medellin</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AFC Totton</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>⚽ 2.5 오버</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>84.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="H19" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Inverness CT</t>
+          <t>Dubrava Zagreb</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Stenhousemuir</t>
+          <t>Jarun</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>⚽ 2.5 오버</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>84.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="H20" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Salisbury</t>
+          <t>Isparta 32 Spor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chippenham Town</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.76</v>
+        <v>2.53</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>✈️ 원정승</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>83.3</v>
+        <v>87.5</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farnham Town</t>
+          <t>Nasarawa United</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yate Town</t>
+          <t>Enyimba</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>81.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Linfield</t>
+          <t>Tenerife II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ballymena United</t>
+          <t>Rayo Vallecano II</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1261,142 +1261,142 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ES Tunis</t>
+          <t>Sport Sinop</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JS Kairouanaise</t>
+          <t>Luverdense</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.12</v>
+        <v>4.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Al-Ahli Jeddah</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.38</v>
+        <v>1.28</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>80</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.38</v>
+        <v>1.28</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sheffield United U21</t>
+          <t>Abia Warriors</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AFC Bournemouth U21</t>
+          <t>Wikki Tourist</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>79.3</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1419,92 +1419,92 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Torquay</t>
+          <t>Linfield</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Farnborough</t>
+          <t>Ballymena United</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>⚽ 2.5 오버</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>79.2</v>
+        <v>81</v>
       </c>
       <c r="H28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oldham</t>
+          <t>AS Soliman</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.08</v>
+        <v>1.39</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>✈️ 원정승</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>78.59999999999999</v>
+        <v>81</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Kastamonuspor 1966</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1513,34 +1513,34 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>77.8</v>
+        <v>81</v>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wiener SC</t>
+          <t>Al-Wasl FC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Langenrohr</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1549,1002 +1549,1002 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>77.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Trefelin</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baglan Dragons</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.25</v>
+        <v>2.53</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>🏠 홈승</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>74.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Queen's Park</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Raith Rovers</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>✈️ 원정승</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>70.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="H33" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Stockport County U21</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Burnley U21</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.9</v>
+        <v>1.39</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>⚽ 2.5 오버</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>79.2</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>ITZ Sport</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Luminense</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.44</v>
+        <v>3.06</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>53.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Peterborough Sports</t>
+          <t>Al Hussein</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Macclesfield</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.24</v>
+        <v>1.44</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>77.8</v>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Negelle Arsi</t>
+          <t>Floriana</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>Zabbar St. Patrick</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.44</v>
+        <v>1.46</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>77.8</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FC St. Pauli</t>
+          <t>Nautico Recife</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Retrô</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.4</v>
+        <v>1.68</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>León W</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>San Juan Jabloteh</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.85</v>
+        <v>1.63</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0:4</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Polessya</t>
+          <t>Sousa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Treze</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>⚽ 2.5 오버</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>46.9</v>
+        <v>76.7</v>
       </c>
       <c r="H40" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Muğlaspor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Buca FK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.94</v>
+        <v>1.11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>45.5</v>
+        <v>76.5</v>
       </c>
       <c r="H41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cardiff City U21</t>
+          <t>BG Pathum United</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brentford U21</t>
+          <t>Dynamic Herb Cebu</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.92</v>
+        <v>1.16</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>45.5</v>
+        <v>76.5</v>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Famalicão U23</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Academico Viseu U23</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.48</v>
+        <v>1.18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>44.8</v>
+        <v>76.5</v>
       </c>
       <c r="H43" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Merthyr Town</t>
+          <t>Breitenrain</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AFC Telford United</t>
+          <t>Münsingen</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.49</v>
+        <v>1.45</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>41.7</v>
+        <v>75</v>
       </c>
       <c r="H44" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Colchester</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Grimsby</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>🏠 홈승</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>73.3</v>
       </c>
       <c r="H45" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Arraba</t>
+          <t>Union St. Gilloise</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Maccabi Neve Sha'anan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.99</v>
+        <v>3.42</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>🤝 무승부</t>
+          <t>✈️ 원정승</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Táborsko</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H47" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Stratford Town</t>
+          <t>Monte Azul</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bishop's Stortford</t>
+          <t>Votuporanguense</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="H48" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.67</v>
+        <v>2.95</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H49" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hereford</t>
+          <t>Altınordu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.61</v>
+        <v>3.84</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alvechurch</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Stamford</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.6</v>
+        <v>3.96</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Swansea City U21</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Millwall U21</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.79</v>
+        <v>2.7</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="H52" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Radcliffe</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Scarborough Athletic</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="H53" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Banbury United</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>St Ives Town</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="H54" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Berkhamsted</t>
+          <t>AL Masry</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hanwell Town</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="H55" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cape Town City</t>
+          <t>Aliağa FAŞ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>University of Pretoria</t>
+          <t>Mardin BB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="H56" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ST Johnstone</t>
+          <t>Desportivo Brasil</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ayr Utd</t>
+          <t>EC São Bernardo</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.72</v>
+        <v>2.59</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HIK</t>
+          <t>Al-Fayha</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ishøj</t>
+          <t>Al Khaleej Saihat</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Weston-super-Mare</t>
+          <t>Chapecoense-sc</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.15</v>
+        <v>2.97</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2553,38 +2553,38 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 무승부</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Stranraer</t>
+          <t>Oeste</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Sertãozinho</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2.79</v>
+        <v>1.96</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2596,27 +2596,27 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Al Wehda Club</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2632,31 +2632,31 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tamworth</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>El Gouna FC</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2668,31 +2668,31 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Airdrie United</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2704,31 +2704,31 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2740,31 +2740,31 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>remo</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Prescot Cables</t>
+          <t>Tivoli Gardens</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Rylands</t>
+          <t>Treasure Beach</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2812,31 +2812,31 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>United of Manchester</t>
+          <t>Kun Khalifat FC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Stockton Town</t>
+          <t>Kwara United</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.29</v>
+        <v>1.73</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2848,27 +2848,27 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Spennymoor Town</t>
+          <t>Yarmanya United</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Curzon Ashton</t>
+          <t>Sagaing United</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.85</v>
+        <v>2.59</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2884,31 +2884,31 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Công An Nhân Dân</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.06</v>
+        <v>2.54</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2920,31 +2920,31 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Linense</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Taubaté</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2956,31 +2956,31 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Billericay Town</t>
+          <t>Inter De Limeira</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>St Albans City</t>
+          <t>Água Santa</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2992,31 +2992,31 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Al Wahda FC</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dibba Al-Fujairah</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.2</v>
+        <v>2.13</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
@@ -3039,20 +3039,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Glentoran</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Coleraine FC</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.76</v>
+        <v>2.7</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3064,31 +3064,31 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Walton &amp; Hersham</t>
+          <t>Nairobi United</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gloucester City</t>
+          <t>APS Bomet</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3100,31 +3100,31 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sheger Ketema</t>
+          <t>Moto Club</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Imperatriz</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3136,31 +3136,31 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>02:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Deportivo Ayense</t>
+          <t>ES Sahel</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aguacateros CDU</t>
+          <t>US Ben Guerdane</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3172,31 +3172,31 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.91</v>
+        <v>2.57</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3208,27 +3208,27 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Fajr Sepasi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Kheybar Khorramabad</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.49</v>
+        <v>2.51</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3244,31 +3244,31 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bromley</t>
+          <t>Karpaty</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Crewe</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.71</v>
+        <v>2.53</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3280,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Şanlıurfaspor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Chesterfield</t>
+          <t>İnegölspor</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3316,31 +3316,31 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>CEOV Operário</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.7</v>
+        <v>2.43</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3358,25 +3358,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cleethorpes Town</t>
+          <t>Rio Branco SP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Whitby Town</t>
+          <t>XV de Jau</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3394,25 +3394,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Coventry City U21</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Huddersfield Town U21</t>
+          <t>RB Bragantino</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3430,25 +3430,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>Zamalek SC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3466,25 +3466,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Perez Zeledon</t>
+          <t>Plateau United</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Enugu Rangers</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.62</v>
+        <v>1.61</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3496,31 +3496,31 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Boston United</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>West Ham United U21</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>0:2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3532,31 +3532,31 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Portimonense U23</t>
+          <t>Itapirense</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Gil Vicente U23</t>
+          <t>Francana</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3574,25 +3574,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Southport</t>
+          <t>Baroka FC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Buxton</t>
+          <t>Highbury</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Kruger United</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tranmere</t>
+          <t>Hungry Lions</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3640,31 +3640,31 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Worksop Town</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Darlington 1883</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.83</v>
+        <v>2.41</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3676,31 +3676,31 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Sepahan FC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3712,31 +3712,31 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3748,31 +3748,31 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity</t>
+          <t>Rio Claro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hyde United</t>
+          <t>Paulista</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Benfica U23</t>
+          <t>Alianza Valledupar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Santa Clara U23</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3826,25 +3826,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Águila</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bradford</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -3867,20 +3867,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Havant &amp; Wville</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Bracknell Town</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3892,31 +3892,31 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3928,31 +3928,31 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>South Shields</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3964,31 +3964,31 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dagenham &amp; Redbridge</t>
+          <t>Grêmio Prudente</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eastbourne Borough</t>
+          <t>XV de Piracicaba</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4006,25 +4006,25 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Nouakchott Academie</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane</t>
+          <t>Tevragh-Zeïne</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.66</v>
+        <v>2.11</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4036,27 +4036,27 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Doncaster</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>ZOB Ahan</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.13</v>
+        <v>2.55</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4072,31 +4072,31 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Charlton Athletic U21</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Colchester United U21</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.22</v>
+        <v>2.59</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4108,31 +4108,31 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mes Shahr-e Babak</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Havadar</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.54</v>
+        <v>1.61</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4144,31 +4144,31 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>Decisão</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pinzgau Saalfelden</t>
+          <t>Acadêmica Vitória</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4180,31 +4180,31 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21</t>
+          <t>Marítimo U23</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday U21</t>
+          <t>Rio Ave U23</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>0:0</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4216,31 +4216,31 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Al Minaa Basra</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Naft</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0:1</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4252,27 +4252,27 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Alfreton Town</t>
+          <t>Estrela U23</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Chorley</t>
+          <t>Farense U23</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4288,31 +4288,31 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1:3</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4324,31 +4324,31 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Leamington</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>King's Lynn Town</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3.6</v>
+        <v>1.14</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4360,27 +4360,27 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21</t>
+          <t>Duhok</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Peterborough United U21</t>
+          <t>Al Zawra'a</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3.56</v>
+        <v>2.89</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4396,31 +4396,31 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Niroye Zamini</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Beyoğlu Yeni Çarşı</t>
+          <t>Foolad FC</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Elazığspor</t>
+          <t>Persepolis FC</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4468,31 +4468,31 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Confianca PB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Campinense</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3.26</v>
+        <v>5.65</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1:2</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4504,31 +4504,31 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Al Karkh</t>
+          <t>Al Kahrabaa</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Al Quwa Al Jawiya</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>0:1</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4540,31 +4540,31 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chesham United</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>AFC Hornchurch</t>
+          <t>Al Ula</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3.46</v>
+        <v>4.65</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0:3</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4576,31 +4576,31 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Al-Adalah</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1899 Hoffenheim</t>
+          <t>Al Diriyah</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:3</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4612,31 +4612,31 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>UMECIT</t>
+          <t>Marumo Gallants</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Plaza Amador</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2:2</t>
+          <t>1:2</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4648,31 +4648,31 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Bedford Town</t>
+          <t>Ajman</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers</t>
+          <t>Shabab Al Ahli Dubai</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4.35</v>
+        <v>6.65</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>0:3</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4690,25 +4690,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hampton &amp; Richmond</t>
+          <t>Tampines Rovers</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Worthing</t>
+          <t>Buriram United</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0:2</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4731,20 +4731,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>1:4</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4756,78 +4756,6 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Necaxa W</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Pachuca W</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>25</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0:4</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Loughgall</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Knockbreda</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0:3</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
         <v>0</v>
       </c>
     </row>
